--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2306831.468169162</v>
+        <v>2304579.388457955</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>243.7491467488897</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900286</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>105.9738003672084</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>49.68400593664564</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>19.68942351146622</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.95558184798671</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>13.02719212039631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.89839816356351</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>219.2767559860917</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>97.18111948505864</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>43.51366809188752</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.4381565326529</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="G13" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053473</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G19" t="n">
-        <v>18.708437879774</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428303</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922675</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673032</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888432</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>125.8152577453162</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459366</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083782</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.8728463917182</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2222.416181075866</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033348</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2609.016021139988</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2609.016021139988</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1538.733963877687</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1249.631097003331</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.631097003331</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>960.2139269663701</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="X4" t="n">
-        <v>732.2243760683527</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="Y4" t="n">
-        <v>511.4317969248226</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1914.135768168901</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1914.135768168901</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955552</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.07259001514</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.80689140839</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101456</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>341.032734020538</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>330.0006879059386</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019674</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>593.9942835760974</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>425.0581006481905</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>425.0581006481905</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.424878447885</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="X10" t="n">
-        <v>996.4353275498672</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.6427484063371</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449245</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E13" t="n">
-        <v>229.7425191625314</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F13" t="n">
-        <v>229.7425191625314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745243</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468419</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963487</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.58765433837</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5507,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192275</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468474</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589159</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121657</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>194.80077839983</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>194.80077839983</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>194.80077839983</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,31 +5677,31 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854707</v>
@@ -5710,13 +5710,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,25 +5741,25 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349516</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121657</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121657</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270456</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,31 +5914,31 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854707</v>
@@ -5947,13 +5947,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349516</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061504</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.043492616111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192275</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438164</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998423</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311352</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032283</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908925</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908925</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908925</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804905</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613749</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.11872044489</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684177</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,22 +7494,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.7605018907561</v>
       </c>
       <c r="G13" t="n">
-        <v>30.95754073885493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.2658363185655</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.229103921941</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124948</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194083</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194095</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194098</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401528</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.21102825632833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.199738306158224</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
@@ -26335,25 +26335,25 @@
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>5.391791546571767e-10</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818182</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.8641468303</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26442,19 +26442,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="O4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12996.86414683046</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913081.2578089554</v>
+        <v>-913081.2578089548</v>
       </c>
       <c r="C6" t="n">
-        <v>415663.4879186373</v>
+        <v>415663.4879186372</v>
       </c>
       <c r="D6" t="n">
-        <v>415663.4879186373</v>
+        <v>415663.4879186372</v>
       </c>
       <c r="E6" t="n">
-        <v>165828.0939894117</v>
+        <v>165793.3560639761</v>
       </c>
       <c r="F6" t="n">
-        <v>491240.5557967664</v>
+        <v>491205.817871331</v>
       </c>
       <c r="G6" t="n">
-        <v>491240.5557967669</v>
+        <v>491205.8178713312</v>
       </c>
       <c r="H6" t="n">
-        <v>491240.5557967667</v>
+        <v>491205.817871331</v>
       </c>
       <c r="I6" t="n">
-        <v>491240.5557967667</v>
+        <v>491205.817871331</v>
       </c>
       <c r="J6" t="n">
-        <v>273709.3533994895</v>
+        <v>273674.6154740536</v>
       </c>
       <c r="K6" t="n">
-        <v>491240.5557967669</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="L6" t="n">
-        <v>491240.5557967667</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="M6" t="n">
-        <v>406185.527861255</v>
+        <v>406150.7899358193</v>
       </c>
       <c r="N6" t="n">
-        <v>491240.5557967669</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="O6" t="n">
-        <v>491240.5557967665</v>
+        <v>491205.817871331</v>
       </c>
       <c r="P6" t="n">
-        <v>491240.5557967668</v>
+        <v>491205.817871331</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>121.5237450221179</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.7461296822332</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>113.5751489089608</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>236.8389923999454</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>345.5834682595413</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.2823568080669</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.5217571557729</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2392451602645</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75.33100840122879</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>272.5499811934104</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>102.9202945546816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.146496819441865</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29445,7 +29445,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669225</v>
@@ -32026,10 +32026,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839416</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179087</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565753</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32397,31 +32397,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162532</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422588</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319839</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32634,31 +32634,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319839</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,7 +32813,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,28 +33029,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622654</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071789</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33108,31 +33108,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467222</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,28 +33257,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622656</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33287,7 +33287,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,31 +33500,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,19 +33740,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622656</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33761,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902372</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095827</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394479</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.53969023631402</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121309</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462659</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678998</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875394</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875394</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.53969023631402</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.133804440247</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238456</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402472</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402472</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
